--- a/data/trans_orig/P13A1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P13A1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27CC1C96-9236-4F5C-AEAB-5265101606FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2620607-1416-475B-A842-5BD1650C3C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D02523AC-28BD-417F-B620-B5D45C2DAEC3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{27DB6601-3AA8-41EB-B013-52D075F8E8D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -110,25 +110,25 @@
     <t>94,24%</t>
   </si>
   <si>
-    <t>80,16%</t>
+    <t>82,22%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>86,02%</t>
+    <t>86,66%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>19,84%</t>
+    <t>17,78%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>13,98%</t>
+    <t>13,34%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -140,13 +140,13 @@
     <t>96,52%</t>
   </si>
   <si>
-    <t>82,36%</t>
+    <t>80,65%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>86,15%</t>
+    <t>87,76%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -155,13 +155,13 @@
     <t>3,48%</t>
   </si>
   <si>
-    <t>17,64%</t>
+    <t>19,35%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>13,85%</t>
+    <t>12,24%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -224,25 +224,25 @@
     <t>96,35%</t>
   </si>
   <si>
-    <t>81,28%</t>
+    <t>83,46%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>87,48%</t>
+    <t>88,54%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>18,72%</t>
+    <t>16,54%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>12,52%</t>
+    <t>11,46%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -254,19 +254,19 @@
     <t>92,18%</t>
   </si>
   <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>93,29%</t>
   </si>
   <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -275,19 +275,19 @@
     <t>7,82%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -296,25 +296,25 @@
     <t>92,81%</t>
   </si>
   <si>
-    <t>70,6%</t>
+    <t>75,41%</t>
   </si>
   <si>
     <t>93,07%</t>
   </si>
   <si>
-    <t>71,19%</t>
+    <t>75,23%</t>
   </si>
   <si>
     <t>7,19%</t>
   </si>
   <si>
-    <t>29,4%</t>
+    <t>24,59%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>28,81%</t>
+    <t>24,77%</t>
   </si>
   <si>
     <t>95,56%</t>
@@ -323,10 +323,10 @@
     <t>94,54%</t>
   </si>
   <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>95,57%</t>
@@ -335,7 +335,7 @@
     <t>90,23%</t>
   </si>
   <si>
-    <t>97,79%</t>
+    <t>98,14%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -344,16 +344,16 @@
     <t>5,46%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>2,21%</t>
+    <t>1,86%</t>
   </si>
   <si>
     <t>9,77%</t>
@@ -771,7 +771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A437392-2799-42D4-A79D-74ABEF9D17E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7E4BF8-AE9B-416C-AF20-96DC98D8A7A6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P13A1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P13A1_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2620607-1416-475B-A842-5BD1650C3C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DB7734C-D796-47C8-8C9D-25794B058B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{27DB6601-3AA8-41EB-B013-52D075F8E8D3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7824D01D-8A07-4582-B6F8-D263E22E64C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -771,7 +771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7E4BF8-AE9B-416C-AF20-96DC98D8A7A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864AFC83-7CE6-441D-999B-98C3989D153B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P13A1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P13A1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DB7734C-D796-47C8-8C9D-25794B058B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3F86DA2-5C3B-473F-B1DD-6B4974BE70C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7824D01D-8A07-4582-B6F8-D263E22E64C6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5C38075C-12C2-4E8E-89CA-4F9D93A9C7DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -110,25 +110,25 @@
     <t>94,24%</t>
   </si>
   <si>
-    <t>82,22%</t>
+    <t>80,16%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>86,66%</t>
+    <t>86,02%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>17,78%</t>
+    <t>19,84%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>13,34%</t>
+    <t>13,98%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -140,13 +140,13 @@
     <t>96,52%</t>
   </si>
   <si>
-    <t>80,65%</t>
+    <t>82,36%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>87,76%</t>
+    <t>86,15%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -155,13 +155,13 @@
     <t>3,48%</t>
   </si>
   <si>
-    <t>19,35%</t>
+    <t>17,64%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>12,24%</t>
+    <t>13,85%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -224,25 +224,25 @@
     <t>96,35%</t>
   </si>
   <si>
-    <t>83,46%</t>
+    <t>81,28%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>88,54%</t>
+    <t>87,48%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>16,54%</t>
+    <t>18,72%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>11,46%</t>
+    <t>12,52%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -254,19 +254,19 @@
     <t>92,18%</t>
   </si>
   <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>93,29%</t>
   </si>
   <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -275,19 +275,19 @@
     <t>7,82%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -296,25 +296,25 @@
     <t>92,81%</t>
   </si>
   <si>
-    <t>75,41%</t>
+    <t>70,6%</t>
   </si>
   <si>
     <t>93,07%</t>
   </si>
   <si>
-    <t>75,23%</t>
+    <t>71,19%</t>
   </si>
   <si>
     <t>7,19%</t>
   </si>
   <si>
-    <t>24,59%</t>
+    <t>29,4%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>24,77%</t>
+    <t>28,81%</t>
   </si>
   <si>
     <t>95,56%</t>
@@ -323,10 +323,10 @@
     <t>94,54%</t>
   </si>
   <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>95,57%</t>
@@ -335,7 +335,7 @@
     <t>90,23%</t>
   </si>
   <si>
-    <t>98,14%</t>
+    <t>97,79%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -344,16 +344,16 @@
     <t>5,46%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>1,86%</t>
+    <t>2,21%</t>
   </si>
   <si>
     <t>9,77%</t>
@@ -771,7 +771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864AFC83-7CE6-441D-999B-98C3989D153B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A950A5-2DF5-4E1C-8C10-805C93490EDB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P13A1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P13A1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3F86DA2-5C3B-473F-B1DD-6B4974BE70C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E5B50CE-2DE5-442D-B30C-6A1D88023A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5C38075C-12C2-4E8E-89CA-4F9D93A9C7DD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0301BA45-3CA3-44C8-9609-921A27D25278}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -107,28 +107,28 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -137,31 +137,31 @@
     <t>76,75%</t>
   </si>
   <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
   </si>
   <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -191,58 +191,58 @@
     <t>43,07%</t>
   </si>
   <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
   </si>
   <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -251,112 +251,112 @@
     <t>79,25%</t>
   </si>
   <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
   </si>
   <si>
     <t>95,56%</t>
   </si>
   <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -771,7 +771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A950A5-2DF5-4E1C-8C10-805C93490EDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C16BB02-322C-4A56-A510-A91DA8D89F67}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>4086</v>
+        <v>4300</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -922,7 +922,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>4245</v>
+        <v>4470</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1009,7 +1009,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>4086</v>
+        <v>4300</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1024,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="N6" s="7">
-        <v>4245</v>
+        <v>4470</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1047,7 +1047,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>13165</v>
+        <v>13049</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -1062,7 +1062,7 @@
         <v>38</v>
       </c>
       <c r="I7" s="7">
-        <v>28648</v>
+        <v>26655</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>23</v>
@@ -1077,7 +1077,7 @@
         <v>48</v>
       </c>
       <c r="N7" s="7">
-        <v>41812</v>
+        <v>39704</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>25</v>
@@ -1113,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1751</v>
+        <v>1690</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>27</v>
@@ -1128,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>1751</v>
+        <v>1690</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>29</v>
@@ -1149,7 +1149,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>13165</v>
+        <v>13049</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1164,7 +1164,7 @@
         <v>40</v>
       </c>
       <c r="I9" s="7">
-        <v>30399</v>
+        <v>28345</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1179,7 +1179,7 @@
         <v>50</v>
       </c>
       <c r="N9" s="7">
-        <v>43563</v>
+        <v>41394</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1202,7 +1202,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>5574</v>
+        <v>5367</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1217,7 +1217,7 @@
         <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>17132</v>
+        <v>15982</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>33</v>
@@ -1232,7 +1232,7 @@
         <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>22707</v>
+        <v>21349</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>35</v>
@@ -1268,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>617</v>
+        <v>562</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>38</v>
@@ -1283,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>617</v>
+        <v>562</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1304,7 +1304,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>5574</v>
+        <v>5367</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1319,7 +1319,7 @@
         <v>28</v>
       </c>
       <c r="I12" s="7">
-        <v>17749</v>
+        <v>16544</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1334,7 +1334,7 @@
         <v>35</v>
       </c>
       <c r="N12" s="7">
-        <v>23324</v>
+        <v>21911</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1357,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>2178</v>
+        <v>2073</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -1372,7 +1372,7 @@
         <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>19324</v>
+        <v>17137</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
@@ -1387,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>21502</v>
+        <v>19210</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
@@ -1459,7 +1459,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>2178</v>
+        <v>2073</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1474,7 +1474,7 @@
         <v>21</v>
       </c>
       <c r="I15" s="7">
-        <v>19324</v>
+        <v>17137</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1489,7 +1489,7 @@
         <v>24</v>
       </c>
       <c r="N15" s="7">
-        <v>21502</v>
+        <v>19210</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1512,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2254</v>
+        <v>2024</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -1527,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>4656</v>
+        <v>4243</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>51</v>
@@ -1542,7 +1542,7 @@
         <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>6910</v>
+        <v>6267</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>53</v>
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>56</v>
@@ -1593,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>58</v>
@@ -1614,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>2254</v>
+        <v>2024</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>5067</v>
+        <v>4620</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1644,7 +1644,7 @@
         <v>13</v>
       </c>
       <c r="N18" s="7">
-        <v>7321</v>
+        <v>6644</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1667,7 +1667,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>6532</v>
+        <v>6181</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
@@ -1682,7 +1682,7 @@
         <v>23</v>
       </c>
       <c r="I19" s="7">
-        <v>13171</v>
+        <v>12270</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>61</v>
@@ -1697,7 +1697,7 @@
         <v>33</v>
       </c>
       <c r="N19" s="7">
-        <v>19703</v>
+        <v>18451</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>63</v>
@@ -1733,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>65</v>
@@ -1748,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>67</v>
@@ -1769,7 +1769,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="7">
-        <v>6532</v>
+        <v>6181</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -1784,7 +1784,7 @@
         <v>24</v>
       </c>
       <c r="I21" s="7">
-        <v>13670</v>
+        <v>12749</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -1799,7 +1799,7 @@
         <v>34</v>
       </c>
       <c r="N21" s="7">
-        <v>20202</v>
+        <v>18930</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -1822,7 +1822,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>7820</v>
+        <v>7521</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>11</v>
@@ -1837,7 +1837,7 @@
         <v>64</v>
       </c>
       <c r="I22" s="7">
-        <v>43491</v>
+        <v>40034</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>71</v>
@@ -1852,7 +1852,7 @@
         <v>72</v>
       </c>
       <c r="N22" s="7">
-        <v>51310</v>
+        <v>47555</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>74</v>
@@ -1888,7 +1888,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>3688</v>
+        <v>3410</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>78</v>
@@ -1903,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>3688</v>
+        <v>3410</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>81</v>
@@ -1924,7 +1924,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>7820</v>
+        <v>7521</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>13</v>
@@ -1939,7 +1939,7 @@
         <v>67</v>
       </c>
       <c r="I24" s="7">
-        <v>47179</v>
+        <v>43444</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>13</v>
@@ -1954,7 +1954,7 @@
         <v>75</v>
       </c>
       <c r="N24" s="7">
-        <v>54998</v>
+        <v>50965</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>13</v>
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>1171</v>
+        <v>1008</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>11</v>
@@ -1992,7 +1992,7 @@
         <v>27</v>
       </c>
       <c r="I25" s="7">
-        <v>28560</v>
+        <v>22873</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>85</v>
@@ -2007,7 +2007,7 @@
         <v>28</v>
       </c>
       <c r="N25" s="7">
-        <v>29731</v>
+        <v>23881</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>87</v>
@@ -2043,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>2213</v>
+        <v>1822</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>89</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>2213</v>
+        <v>1822</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>91</v>
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>1171</v>
+        <v>1008</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -2094,7 +2094,7 @@
         <v>29</v>
       </c>
       <c r="I27" s="7">
-        <v>30773</v>
+        <v>24695</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -2109,7 +2109,7 @@
         <v>30</v>
       </c>
       <c r="N27" s="7">
-        <v>31944</v>
+        <v>25703</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -2132,7 +2132,7 @@
         <v>42</v>
       </c>
       <c r="D28" s="7">
-        <v>38855</v>
+        <v>37393</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>11</v>
@@ -2147,7 +2147,7 @@
         <v>219</v>
       </c>
       <c r="I28" s="7">
-        <v>159066</v>
+        <v>143494</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>94</v>
@@ -2162,7 +2162,7 @@
         <v>261</v>
       </c>
       <c r="N28" s="7">
-        <v>197921</v>
+        <v>180887</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>97</v>
@@ -2198,7 +2198,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>9180</v>
+        <v>8340</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>101</v>
@@ -2213,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="N29" s="7">
-        <v>9180</v>
+        <v>8340</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>104</v>
@@ -2234,7 +2234,7 @@
         <v>42</v>
       </c>
       <c r="D30" s="7">
-        <v>38855</v>
+        <v>37393</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>13</v>
@@ -2249,7 +2249,7 @@
         <v>229</v>
       </c>
       <c r="I30" s="7">
-        <v>168246</v>
+        <v>151834</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>13</v>
@@ -2264,7 +2264,7 @@
         <v>271</v>
       </c>
       <c r="N30" s="7">
-        <v>207101</v>
+        <v>189227</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>13</v>
